--- a/Documentação/ListaDeTarefas.xlsx
+++ b/Documentação/ListaDeTarefas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\acheiLink\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\acheiLink\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{258A9131-916C-4045-9941-B96BA16E9E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC821249-B8DC-45C7-8177-6571202023B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="99">
   <si>
     <t>Id</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Aguardando</t>
   </si>
   <si>
-    <t>Teste</t>
-  </si>
-  <si>
     <t>Review</t>
   </si>
   <si>
@@ -261,13 +258,82 @@
   </si>
   <si>
     <t>Curso de HTML, CSS e Javascript</t>
+  </si>
+  <si>
+    <t>Desenvolver MER do Sisitema</t>
+  </si>
+  <si>
+    <t>Desenvolver o Fluxo de Dados</t>
+  </si>
+  <si>
+    <t>Desenvolver Documento de Identidade Visual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolver Logotipo </t>
+  </si>
+  <si>
+    <t>Desenvolver pagina inicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagina de Cadastro </t>
+  </si>
+  <si>
+    <t>Pagina de Login</t>
+  </si>
+  <si>
+    <t>Pagina de Edição de usuário</t>
+  </si>
+  <si>
+    <t>Desenvolver Cabeçalho e Rodapé</t>
+  </si>
+  <si>
+    <t>Desenvolver o CRUD do Anexador de links</t>
+  </si>
+  <si>
+    <t>Desenvolver o Carrinho de pagamentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fase 2 </t>
+  </si>
+  <si>
+    <t>Inserir dados na TAG NFC</t>
+  </si>
+  <si>
+    <t>Implementar no sistema o envio da tag</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fim </t>
+  </si>
+  <si>
+    <t>Fase</t>
+  </si>
+  <si>
+    <t>Planejamento</t>
+  </si>
+  <si>
+    <t>Desenvolvimento</t>
+  </si>
+  <si>
+    <t>Revisado por</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,13 +363,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -318,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -340,8 +442,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -349,6 +478,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FFCC"/>
+      <color rgb="FF35FBDA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -640,14 +775,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -675,7 +810,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -692,7 +827,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
@@ -709,7 +844,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
@@ -726,7 +861,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>4</v>
@@ -743,7 +878,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>4</v>
@@ -760,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>5</v>
@@ -777,7 +912,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>5</v>
@@ -791,13 +926,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>17</v>
@@ -808,13 +943,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>17</v>
@@ -825,13 +960,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>17</v>
@@ -842,13 +977,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>17</v>
@@ -859,13 +994,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
@@ -876,10 +1011,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>5</v>
@@ -893,10 +1028,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>5</v>
@@ -910,10 +1045,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>5</v>
@@ -923,20 +1058,20 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="A20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
@@ -950,13 +1085,13 @@
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>5</v>
@@ -967,16 +1102,16 @@
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>17</v>
@@ -984,16 +1119,16 @@
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>17</v>
@@ -1001,16 +1136,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>17</v>
@@ -1018,13 +1153,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>5</v>
@@ -1035,16 +1170,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>17</v>
@@ -1052,16 +1187,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>17</v>
@@ -1069,13 +1204,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
@@ -1086,16 +1221,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>17</v>
@@ -1103,16 +1238,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>17</v>
@@ -1136,7 +1271,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E08BE614-3E69-487D-AEAB-CDB1D992B376}">
           <x14:formula1>
-            <xm:f>Util!$B$2:$B$1048576</xm:f>
+            <xm:f>Util!$B$3:$B$1048576</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E19 E22:E1048576</xm:sqref>
         </x14:dataValidation>
@@ -1148,44 +1283,254 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84120AE-8945-4105-9E02-C5FE2E39E216}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="E2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="13">
+        <v>44687</v>
+      </c>
+      <c r="F3" s="13">
+        <v>44687</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>3</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>5</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>7</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>8</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0BD3778A-255C-4FB5-ACC9-689342E698B3}">
           <x14:formula1>
             <xm:f>Util!$A$2:$A$1048576</xm:f>
@@ -1194,9 +1539,21 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BB3698C1-EBE5-4813-A1A2-313C5876850F}">
           <x14:formula1>
-            <xm:f>Util!$B$2:$B$1048576</xm:f>
+            <xm:f>Util!$B$3:$B$1048576</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7EE9285A-AF11-4255-AA31-506FD3B8ADDD}">
+          <x14:formula1>
+            <xm:f>Util!$C$2:$C$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>G3:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DAC909F6-6AE5-4475-AFB7-15A384F63818}">
+          <x14:formula1>
+            <xm:f>Util!$A$2:$A$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1206,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBA071B-1774-49EE-8FB8-44E3241D5A5B}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,46 +1575,56 @@
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>19</v>
+      <c r="C5" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/ListaDeTarefas.xlsx
+++ b/Documentação/ListaDeTarefas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\acheiLink\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC821249-B8DC-45C7-8177-6571202023B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C51CF68-D307-4F23-87DF-52BD6267FE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="101">
   <si>
     <t>Id</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>1.4</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>Desenvolver api</t>
   </si>
 </sst>
 </file>
@@ -331,7 +337,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -442,19 +448,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -463,14 +463,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,12 +781,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="7" t="s">
         <v>48</v>
       </c>
@@ -1058,13 +1064,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -1283,22 +1289,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84120AE-8945-4105-9E02-C5FE2E39E216}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1306,219 +1312,266 @@
       <c r="A1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="D3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="11">
         <v>44687</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <v>44687</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="11">
+        <v>44696</v>
+      </c>
+      <c r="F4" s="11">
+        <v>44696</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="11">
+        <v>44700</v>
+      </c>
+      <c r="F5" s="11">
+        <v>44700</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11">
+        <v>44700</v>
+      </c>
+      <c r="F6" s="11">
+        <v>44700</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="11">
+        <v>44700</v>
+      </c>
+      <c r="F7" s="11">
+        <v>44700</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>2</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="14" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>4</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>5</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="B11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="11" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>6</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="11" t="s">
+    <row r="13" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>7</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>2</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="11" t="s">
+    <row r="14" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>8</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>3</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>4</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>5</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>6</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>7</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>8</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+    <row r="18" spans="2:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
         <v>90</v>
       </c>
     </row>
